--- a/simulations/raw_inclusion_exclusion/Moran_2021 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Moran_2021 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>383</v>
       </c>
       <c r="C2">
-        <v>1565</v>
+        <v>1891</v>
       </c>
       <c r="D2">
-        <v>974</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>1330</v>
       </c>
       <c r="C3">
-        <v>537</v>
+        <v>1320</v>
       </c>
       <c r="D3">
-        <v>933.5</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>3641</v>
       </c>
       <c r="C4">
-        <v>3747</v>
+        <v>3682</v>
       </c>
       <c r="D4">
-        <v>3694</v>
+        <v>3661.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>4163</v>
       </c>
       <c r="C5">
-        <v>4222</v>
+        <v>4389</v>
       </c>
       <c r="D5">
-        <v>4192.5</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>3100</v>
       </c>
       <c r="C6">
-        <v>2936</v>
+        <v>3193</v>
       </c>
       <c r="D6">
-        <v>3018</v>
+        <v>3146.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>1577</v>
       </c>
       <c r="C7">
-        <v>882</v>
+        <v>1570</v>
       </c>
       <c r="D7">
-        <v>1229.5</v>
+        <v>1573.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>1942</v>
       </c>
       <c r="C8">
-        <v>727</v>
+        <v>1459</v>
       </c>
       <c r="D8">
-        <v>1334.5</v>
+        <v>1700.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>1501</v>
       </c>
       <c r="C9">
-        <v>905</v>
+        <v>1641</v>
       </c>
       <c r="D9">
-        <v>1203</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>1572</v>
       </c>
       <c r="C10">
-        <v>865</v>
+        <v>1619</v>
       </c>
       <c r="D10">
-        <v>1218.5</v>
+        <v>1595.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>2948</v>
       </c>
       <c r="C11">
-        <v>2563</v>
+        <v>3142</v>
       </c>
       <c r="D11">
-        <v>2755.5</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>2966</v>
       </c>
       <c r="C12">
-        <v>2557</v>
+        <v>2900</v>
       </c>
       <c r="D12">
-        <v>2761.5</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>219</v>
       </c>
       <c r="C13">
-        <v>1752</v>
+        <v>501</v>
       </c>
       <c r="D13">
-        <v>985.5</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>1078</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>1014</v>
       </c>
       <c r="D14">
-        <v>542</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>3455</v>
       </c>
       <c r="C15">
-        <v>3444</v>
+        <v>3469</v>
       </c>
       <c r="D15">
-        <v>3449.5</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>1096</v>
       </c>
       <c r="C16">
-        <v>163</v>
+        <v>1034</v>
       </c>
       <c r="D16">
-        <v>629.5</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,10 +624,10 @@
         <v>1570</v>
       </c>
       <c r="C17">
-        <v>863</v>
+        <v>1617</v>
       </c>
       <c r="D17">
-        <v>1216.5</v>
+        <v>1593.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,10 +638,10 @@
         <v>1305</v>
       </c>
       <c r="C18">
-        <v>1135</v>
+        <v>1292</v>
       </c>
       <c r="D18">
-        <v>1220</v>
+        <v>1298.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,10 +652,10 @@
         <v>1768</v>
       </c>
       <c r="C19">
-        <v>1448</v>
+        <v>2003</v>
       </c>
       <c r="D19">
-        <v>1608</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>3578</v>
       </c>
       <c r="C20">
-        <v>3648</v>
+        <v>3723</v>
       </c>
       <c r="D20">
-        <v>3613</v>
+        <v>3650.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,10 +680,10 @@
         <v>1016</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>982</v>
       </c>
       <c r="D21">
-        <v>556</v>
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,10 +694,10 @@
         <v>455</v>
       </c>
       <c r="C22">
-        <v>1633</v>
+        <v>1938</v>
       </c>
       <c r="D22">
-        <v>1044</v>
+        <v>1196.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,10 +708,10 @@
         <v>2475</v>
       </c>
       <c r="C23">
-        <v>2409</v>
+        <v>2552</v>
       </c>
       <c r="D23">
-        <v>2442</v>
+        <v>2513.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,10 +722,10 @@
         <v>888</v>
       </c>
       <c r="C24">
-        <v>293</v>
+        <v>736</v>
       </c>
       <c r="D24">
-        <v>590.5</v>
+        <v>812</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,10 +736,10 @@
         <v>3047</v>
       </c>
       <c r="C25">
-        <v>3000</v>
+        <v>3183</v>
       </c>
       <c r="D25">
-        <v>3023.5</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,10 +750,10 @@
         <v>4440</v>
       </c>
       <c r="C26">
-        <v>4450</v>
+        <v>4549</v>
       </c>
       <c r="D26">
-        <v>4445</v>
+        <v>4494.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,10 +764,10 @@
         <v>3430</v>
       </c>
       <c r="C27">
-        <v>3514</v>
+        <v>3563</v>
       </c>
       <c r="D27">
-        <v>3472</v>
+        <v>3496.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,10 +778,10 @@
         <v>1445</v>
       </c>
       <c r="C28">
-        <v>756</v>
+        <v>1523</v>
       </c>
       <c r="D28">
-        <v>1100.5</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,10 +792,10 @@
         <v>1995</v>
       </c>
       <c r="C29">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D29">
-        <v>1998</v>
+        <v>1998.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,10 +806,10 @@
         <v>3704</v>
       </c>
       <c r="C30">
-        <v>3584</v>
+        <v>3637</v>
       </c>
       <c r="D30">
-        <v>3644</v>
+        <v>3670.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,10 +820,10 @@
         <v>433</v>
       </c>
       <c r="C31">
-        <v>1608</v>
+        <v>1895</v>
       </c>
       <c r="D31">
-        <v>1020.5</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,10 +834,10 @@
         <v>1321</v>
       </c>
       <c r="C32">
-        <v>1631</v>
+        <v>1936</v>
       </c>
       <c r="D32">
-        <v>1476</v>
+        <v>1628.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,10 +848,10 @@
         <v>1478</v>
       </c>
       <c r="C33">
-        <v>1270</v>
+        <v>1696</v>
       </c>
       <c r="D33">
-        <v>1374</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,10 +862,10 @@
         <v>866</v>
       </c>
       <c r="C34">
-        <v>361</v>
+        <v>934</v>
       </c>
       <c r="D34">
-        <v>613.5</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,10 +876,10 @@
         <v>1271</v>
       </c>
       <c r="C35">
-        <v>563</v>
+        <v>1218</v>
       </c>
       <c r="D35">
-        <v>917</v>
+        <v>1244.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,10 +890,10 @@
         <v>3932</v>
       </c>
       <c r="C36">
-        <v>3834</v>
+        <v>3850</v>
       </c>
       <c r="D36">
-        <v>3883</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,10 +904,10 @@
         <v>1369</v>
       </c>
       <c r="C37">
-        <v>1492</v>
+        <v>1373</v>
       </c>
       <c r="D37">
-        <v>1430.5</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,10 +918,10 @@
         <v>1513</v>
       </c>
       <c r="C38">
-        <v>769</v>
+        <v>1536</v>
       </c>
       <c r="D38">
-        <v>1141</v>
+        <v>1524.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,10 +932,10 @@
         <v>791</v>
       </c>
       <c r="C39">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="D39">
-        <v>560</v>
+        <v>460.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,10 +946,10 @@
         <v>946</v>
       </c>
       <c r="C40">
-        <v>576</v>
+        <v>1132</v>
       </c>
       <c r="D40">
-        <v>761</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,10 +960,10 @@
         <v>3401</v>
       </c>
       <c r="C41">
-        <v>3434</v>
+        <v>3426</v>
       </c>
       <c r="D41">
-        <v>3417.5</v>
+        <v>3413.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,10 +974,10 @@
         <v>249</v>
       </c>
       <c r="C42">
-        <v>1778</v>
+        <v>392</v>
       </c>
       <c r="D42">
-        <v>1013.5</v>
+        <v>320.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,10 +988,10 @@
         <v>2226</v>
       </c>
       <c r="C43">
-        <v>2609</v>
+        <v>2484</v>
       </c>
       <c r="D43">
-        <v>2417.5</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,10 +1002,10 @@
         <v>1017</v>
       </c>
       <c r="C44">
-        <v>108</v>
+        <v>984</v>
       </c>
       <c r="D44">
-        <v>562.5</v>
+        <v>1000.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>515</v>
       </c>
       <c r="C45">
-        <v>1212</v>
+        <v>773</v>
       </c>
       <c r="D45">
-        <v>863.5</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,10 +1030,10 @@
         <v>600</v>
       </c>
       <c r="C46">
-        <v>1417</v>
+        <v>823</v>
       </c>
       <c r="D46">
-        <v>1008.5</v>
+        <v>711.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,10 +1044,10 @@
         <v>1269</v>
       </c>
       <c r="C47">
-        <v>562</v>
+        <v>1231</v>
       </c>
       <c r="D47">
-        <v>915.5</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>152</v>
       </c>
       <c r="C48">
-        <v>1746</v>
+        <v>531</v>
       </c>
       <c r="D48">
-        <v>949</v>
+        <v>341.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,10 +1072,10 @@
         <v>5125</v>
       </c>
       <c r="C49">
-        <v>5150</v>
+        <v>5126</v>
       </c>
       <c r="D49">
-        <v>5137.5</v>
+        <v>5125.5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,10 +1086,10 @@
         <v>4527</v>
       </c>
       <c r="C50">
-        <v>4575</v>
+        <v>4588</v>
       </c>
       <c r="D50">
-        <v>4551</v>
+        <v>4557.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,10 +1100,10 @@
         <v>1550</v>
       </c>
       <c r="C51">
-        <v>745</v>
+        <v>1529</v>
       </c>
       <c r="D51">
-        <v>1147.5</v>
+        <v>1539.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,10 +1114,10 @@
         <v>2214</v>
       </c>
       <c r="C52">
-        <v>2280</v>
+        <v>2197</v>
       </c>
       <c r="D52">
-        <v>2247</v>
+        <v>2205.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,10 +1128,10 @@
         <v>661</v>
       </c>
       <c r="C53">
-        <v>2302</v>
+        <v>2386</v>
       </c>
       <c r="D53">
-        <v>1481.5</v>
+        <v>1523.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,10 +1142,10 @@
         <v>2731</v>
       </c>
       <c r="C54">
-        <v>3084</v>
+        <v>2976</v>
       </c>
       <c r="D54">
-        <v>2907.5</v>
+        <v>2853.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,10 +1156,10 @@
         <v>1845</v>
       </c>
       <c r="C55">
-        <v>991</v>
+        <v>2042</v>
       </c>
       <c r="D55">
-        <v>1418</v>
+        <v>1943.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,10 +1170,10 @@
         <v>113</v>
       </c>
       <c r="C56">
-        <v>1756</v>
+        <v>482</v>
       </c>
       <c r="D56">
-        <v>934.5</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,10 +1184,10 @@
         <v>516</v>
       </c>
       <c r="C57">
-        <v>1213</v>
+        <v>774</v>
       </c>
       <c r="D57">
-        <v>864.5</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,10 +1198,10 @@
         <v>2846</v>
       </c>
       <c r="C58">
-        <v>2457</v>
+        <v>2858</v>
       </c>
       <c r="D58">
-        <v>2651.5</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,10 +1212,10 @@
         <v>471</v>
       </c>
       <c r="C59">
-        <v>1650</v>
+        <v>1943</v>
       </c>
       <c r="D59">
-        <v>1060.5</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,10 +1226,10 @@
         <v>3135</v>
       </c>
       <c r="C60">
-        <v>2529</v>
+        <v>2909</v>
       </c>
       <c r="D60">
-        <v>2832</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,10 +1240,10 @@
         <v>1716</v>
       </c>
       <c r="C61">
-        <v>1668</v>
+        <v>1975</v>
       </c>
       <c r="D61">
-        <v>1692</v>
+        <v>1845.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,10 +1254,10 @@
         <v>2015</v>
       </c>
       <c r="C62">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="D62">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,10 +1268,10 @@
         <v>156</v>
       </c>
       <c r="C63">
-        <v>1353</v>
+        <v>535</v>
       </c>
       <c r="D63">
-        <v>754.5</v>
+        <v>345.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1279,10 +1279,10 @@
         <v>3600</v>
       </c>
       <c r="C64">
-        <v>2734</v>
+        <v>466</v>
       </c>
       <c r="D64">
-        <v>2734</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>1100</v>
       </c>
       <c r="C65">
-        <v>261</v>
+        <v>1027</v>
       </c>
       <c r="D65">
-        <v>680.5</v>
+        <v>1063.5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1307,10 +1307,10 @@
         <v>4974</v>
       </c>
       <c r="C66">
-        <v>4991</v>
+        <v>4967</v>
       </c>
       <c r="D66">
-        <v>4982.5</v>
+        <v>4970.5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1321,10 +1321,10 @@
         <v>683</v>
       </c>
       <c r="C67">
-        <v>1345</v>
+        <v>905</v>
       </c>
       <c r="D67">
-        <v>1014</v>
+        <v>794</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1335,10 +1335,10 @@
         <v>538</v>
       </c>
       <c r="C68">
-        <v>1589</v>
+        <v>800</v>
       </c>
       <c r="D68">
-        <v>1063.5</v>
+        <v>669</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1349,10 +1349,10 @@
         <v>2705</v>
       </c>
       <c r="C69">
-        <v>2501</v>
+        <v>2698</v>
       </c>
       <c r="D69">
-        <v>2603</v>
+        <v>2701.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1363,10 +1363,10 @@
         <v>2449</v>
       </c>
       <c r="C70">
-        <v>2387</v>
+        <v>2370</v>
       </c>
       <c r="D70">
-        <v>2418</v>
+        <v>2409.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1377,10 +1377,10 @@
         <v>3183</v>
       </c>
       <c r="C71">
-        <v>3141</v>
+        <v>3279</v>
       </c>
       <c r="D71">
-        <v>3162</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1391,10 +1391,10 @@
         <v>1657</v>
       </c>
       <c r="C72">
-        <v>979</v>
+        <v>1656</v>
       </c>
       <c r="D72">
-        <v>1318</v>
+        <v>1656.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1405,10 +1405,10 @@
         <v>1421</v>
       </c>
       <c r="C73">
-        <v>836</v>
+        <v>1398</v>
       </c>
       <c r="D73">
-        <v>1128.5</v>
+        <v>1409.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1419,10 +1419,10 @@
         <v>29</v>
       </c>
       <c r="C74">
-        <v>1357</v>
+        <v>454</v>
       </c>
       <c r="D74">
-        <v>693</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1433,10 +1433,10 @@
         <v>795</v>
       </c>
       <c r="C75">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="D75">
-        <v>561</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1447,10 +1447,10 @@
         <v>158</v>
       </c>
       <c r="C76">
-        <v>1347</v>
+        <v>538</v>
       </c>
       <c r="D76">
-        <v>752.5</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1461,10 +1461,10 @@
         <v>2042</v>
       </c>
       <c r="C77">
-        <v>1904</v>
+        <v>2090</v>
       </c>
       <c r="D77">
-        <v>1973</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1475,10 +1475,10 @@
         <v>465</v>
       </c>
       <c r="C78">
-        <v>1604</v>
+        <v>1899</v>
       </c>
       <c r="D78">
-        <v>1034.5</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1489,10 +1489,10 @@
         <v>1563</v>
       </c>
       <c r="C79">
-        <v>798</v>
+        <v>1507</v>
       </c>
       <c r="D79">
-        <v>1180.5</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1503,10 +1503,10 @@
         <v>107</v>
       </c>
       <c r="C80">
-        <v>1194</v>
+        <v>476</v>
       </c>
       <c r="D80">
-        <v>650.5</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1517,10 +1517,10 @@
         <v>567</v>
       </c>
       <c r="C81">
-        <v>1211</v>
+        <v>785</v>
       </c>
       <c r="D81">
-        <v>889</v>
+        <v>676</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1531,10 +1531,10 @@
         <v>1997</v>
       </c>
       <c r="C82">
-        <v>2004</v>
+        <v>2029</v>
       </c>
       <c r="D82">
-        <v>2000.5</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1545,10 +1545,10 @@
         <v>2252</v>
       </c>
       <c r="C83">
-        <v>2172</v>
+        <v>2454</v>
       </c>
       <c r="D83">
-        <v>2212</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1559,10 +1559,10 @@
         <v>3580</v>
       </c>
       <c r="C84">
-        <v>3650</v>
+        <v>3724</v>
       </c>
       <c r="D84">
-        <v>3615</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1573,10 +1573,10 @@
         <v>849</v>
       </c>
       <c r="C85">
-        <v>314</v>
+        <v>114</v>
       </c>
       <c r="D85">
-        <v>581.5</v>
+        <v>481.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1587,10 +1587,10 @@
         <v>2145</v>
       </c>
       <c r="C86">
-        <v>2126</v>
+        <v>2226</v>
       </c>
       <c r="D86">
-        <v>2135.5</v>
+        <v>2185.5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1601,10 +1601,10 @@
         <v>4227</v>
       </c>
       <c r="C87">
-        <v>4231</v>
+        <v>4233</v>
       </c>
       <c r="D87">
-        <v>4229</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1615,10 +1615,10 @@
         <v>2990</v>
       </c>
       <c r="C88">
-        <v>2777</v>
+        <v>2958</v>
       </c>
       <c r="D88">
-        <v>2883.5</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1629,10 +1629,10 @@
         <v>545</v>
       </c>
       <c r="C89">
-        <v>1233</v>
+        <v>811</v>
       </c>
       <c r="D89">
-        <v>889</v>
+        <v>678</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1643,10 +1643,10 @@
         <v>1125</v>
       </c>
       <c r="C90">
-        <v>238</v>
+        <v>1085</v>
       </c>
       <c r="D90">
-        <v>681.5</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1657,10 +1657,10 @@
         <v>191</v>
       </c>
       <c r="C91">
-        <v>1389</v>
+        <v>572</v>
       </c>
       <c r="D91">
-        <v>790</v>
+        <v>381.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1671,10 +1671,10 @@
         <v>2658</v>
       </c>
       <c r="C92">
-        <v>2714</v>
+        <v>2999</v>
       </c>
       <c r="D92">
-        <v>2686</v>
+        <v>2828.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1685,10 +1685,10 @@
         <v>2376</v>
       </c>
       <c r="C93">
-        <v>2244</v>
+        <v>2395</v>
       </c>
       <c r="D93">
-        <v>2310</v>
+        <v>2385.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1699,10 +1699,10 @@
         <v>1239</v>
       </c>
       <c r="C94">
-        <v>61</v>
+        <v>1210</v>
       </c>
       <c r="D94">
-        <v>650</v>
+        <v>1224.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>3007</v>
       </c>
       <c r="C95">
-        <v>2802</v>
+        <v>3153</v>
       </c>
       <c r="D95">
-        <v>2904.5</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1727,10 +1727,10 @@
         <v>2918</v>
       </c>
       <c r="C96">
-        <v>384</v>
+        <v>3137</v>
       </c>
       <c r="D96">
-        <v>1651</v>
+        <v>3027.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1741,10 +1741,10 @@
         <v>3885</v>
       </c>
       <c r="C97">
-        <v>3344</v>
+        <v>3797</v>
       </c>
       <c r="D97">
-        <v>3614.5</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1755,10 +1755,10 @@
         <v>1569</v>
       </c>
       <c r="C98">
-        <v>855</v>
+        <v>1628</v>
       </c>
       <c r="D98">
-        <v>1212</v>
+        <v>1598.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1769,10 +1769,10 @@
         <v>1021</v>
       </c>
       <c r="C99">
-        <v>45</v>
+        <v>977</v>
       </c>
       <c r="D99">
-        <v>533</v>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1783,10 +1783,10 @@
         <v>1639</v>
       </c>
       <c r="C100">
-        <v>1477</v>
+        <v>1662</v>
       </c>
       <c r="D100">
-        <v>1558</v>
+        <v>1650.5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1797,10 +1797,10 @@
         <v>1643</v>
       </c>
       <c r="C101">
-        <v>1480</v>
+        <v>1687</v>
       </c>
       <c r="D101">
-        <v>1561.5</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1811,10 +1811,10 @@
         <v>1535</v>
       </c>
       <c r="C102">
-        <v>686</v>
+        <v>1535</v>
       </c>
       <c r="D102">
-        <v>1110.5</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1825,10 +1825,10 @@
         <v>2793</v>
       </c>
       <c r="C103">
-        <v>2916</v>
+        <v>2771</v>
       </c>
       <c r="D103">
-        <v>2854.5</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1839,10 +1839,10 @@
         <v>1867</v>
       </c>
       <c r="C104">
-        <v>1159</v>
+        <v>1453</v>
       </c>
       <c r="D104">
-        <v>1513</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1853,10 +1853,10 @@
         <v>3563</v>
       </c>
       <c r="C105">
-        <v>3637</v>
+        <v>3933</v>
       </c>
       <c r="D105">
-        <v>3600</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1867,10 +1867,10 @@
         <v>2446</v>
       </c>
       <c r="C106">
-        <v>2322</v>
+        <v>2353</v>
       </c>
       <c r="D106">
-        <v>2384</v>
+        <v>2399.5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1881,10 +1881,10 @@
         <v>322</v>
       </c>
       <c r="C107">
-        <v>2066</v>
+        <v>670</v>
       </c>
       <c r="D107">
-        <v>1194</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1895,10 +1895,10 @@
         <v>4507</v>
       </c>
       <c r="C108">
-        <v>4463</v>
+        <v>4570</v>
       </c>
       <c r="D108">
-        <v>4485</v>
+        <v>4538.5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1909,10 +1909,10 @@
         <v>1778</v>
       </c>
       <c r="C109">
-        <v>1439</v>
+        <v>2018</v>
       </c>
       <c r="D109">
-        <v>1608.5</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1923,10 +1923,10 @@
         <v>2110</v>
       </c>
       <c r="C110">
-        <v>1931</v>
+        <v>2152</v>
       </c>
       <c r="D110">
-        <v>2020.5</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1937,10 +1937,10 @@
         <v>2721</v>
       </c>
       <c r="C111">
-        <v>2927</v>
+        <v>2778</v>
       </c>
       <c r="D111">
-        <v>2824</v>
+        <v>2749.5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1951,10 +1951,10 @@
         <v>3009</v>
       </c>
       <c r="C112">
-        <v>2741</v>
+        <v>3172</v>
       </c>
       <c r="D112">
-        <v>2875</v>
+        <v>3090.5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1965,7 +1965,7 @@
         <v>1890.909090909091</v>
       </c>
       <c r="C113">
-        <v>1865.738738738739</v>
+        <v>2022.603603603604</v>
       </c>
     </row>
   </sheetData>
